--- a/Simulation_Result/Resultados_Simulacao_7.xlsx
+++ b/Simulation_Result/Resultados_Simulacao_7.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         <v>878754.4449999999</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F9" t="n">
-        <v>1.333333</v>
+        <v>0.666667</v>
       </c>
     </row>
     <row r="10">
@@ -652,32 +652,12 @@
         <v>900187.481</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F10" t="n">
-        <v>0.333333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>43</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>921620.5159999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>300</v>
-      </c>
-      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -724,10 +704,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.73083333</v>
+        <v>1.73033333</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.73004855</v>
+        <v>1.70587326</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +717,10 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.00203107581</v>
+        <v>0.00169386845</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.00206348719</v>
+        <v>0.00181436808</v>
       </c>
     </row>
     <row r="4">
@@ -750,10 +730,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.0450674584</v>
+        <v>0.0411566331</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0454256226</v>
+        <v>0.0425953998</v>
       </c>
     </row>
     <row r="6">
@@ -815,13 +795,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1.755833333333333</v>
+        <v>1.755333333333333</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.002024305555555556</v>
+        <v>0.001688222222222222</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.04499228328897696</v>
+        <v>0.0410879814814773</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>1.75</v>
@@ -833,16 +813,16 @@
         <v>300</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.0256244612941492</v>
+        <v>0.0234075093893718</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>7.646835724912747</v>
+        <v>7.621497446515953</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>56.96629405482408</v>
+        <v>56.46274868724721</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0.3098235309160626</v>
+        <v>0.4544237117133733</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -869,7 +849,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.73083333</v>
+        <v>1.73033333</v>
       </c>
     </row>
     <row r="11">
@@ -879,7 +859,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.73004855</v>
+        <v>1.70587326</v>
       </c>
     </row>
     <row r="12">
@@ -889,7 +869,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00203107581</v>
+        <v>0.00169386845</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +879,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00206348719</v>
+        <v>0.00181436808</v>
       </c>
     </row>
     <row r="14">
@@ -909,7 +889,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0450674584</v>
+        <v>0.0411566331</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +899,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0454256226</v>
+        <v>0.0425953998</v>
       </c>
     </row>
     <row r="16">
@@ -929,7 +909,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.755833333333333</v>
+        <v>1.755333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -939,7 +919,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002024305555555556</v>
+        <v>0.001688222222222222</v>
       </c>
     </row>
     <row r="18">
@@ -949,7 +929,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04499228328897696</v>
+        <v>0.0410879814814773</v>
       </c>
     </row>
     <row r="19">
@@ -989,7 +969,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0256244612941492</v>
+        <v>0.0234075093893718</v>
       </c>
     </row>
     <row r="23">
@@ -999,7 +979,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.646835724912747</v>
+        <v>7.621497446515953</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +989,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.96629405482408</v>
+        <v>56.46274868724721</v>
       </c>
     </row>
     <row r="25">
@@ -1019,7 +999,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3098235309160626</v>
+        <v>0.4544237117133733</v>
       </c>
     </row>
     <row r="26">
